--- a/results/accel-glmm-results/habitat-season/lmb/glmm_ind_effects_hab_season_lmb.xlsx
+++ b/results/accel-glmm-results/habitat-season/lmb/glmm_ind_effects_hab_season_lmb.xlsx
@@ -480,16 +480,16 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.23854976546635</v>
+        <v>-0.829970931945313</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0696205716433035</v>
+        <v>0.0794152258688126</v>
       </c>
       <c r="G2" t="n">
-        <v>-17.7899970688545</v>
+        <v>-10.4510303013726</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000844843248705405</v>
+        <v>0.000000000000000000000000144941988346595</v>
       </c>
     </row>
     <row r="3">
@@ -504,16 +504,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5907616369183</v>
+        <v>0.466116858714532</v>
       </c>
       <c r="F3" t="n">
-        <v>0.200489652741129</v>
+        <v>0.111155109723769</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94659414509081</v>
+        <v>4.19339119787546</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00321294597387518</v>
+        <v>0.0000274814916581108</v>
       </c>
     </row>
     <row r="4">
@@ -528,16 +528,16 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.925588437744798</v>
+        <v>0.875698303959367</v>
       </c>
       <c r="F4" t="n">
-        <v>0.383018311806287</v>
+        <v>0.171736405389457</v>
       </c>
       <c r="G4" t="n">
-        <v>2.41656445452905</v>
+        <v>5.09908369150672</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0156677520554825</v>
+        <v>0.000000341301632957521</v>
       </c>
     </row>
     <row r="5">
@@ -552,16 +552,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.14850617273924</v>
+        <v>-0.20586693801596</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0926687162520895</v>
+        <v>0.0918767005706725</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.60254915299846</v>
+        <v>-2.24068710279387</v>
       </c>
       <c r="H5" t="n">
-        <v>0.10903422734063</v>
+        <v>0.0250463501069733</v>
       </c>
     </row>
     <row r="6">
@@ -576,16 +576,16 @@
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.233126748906077</v>
+        <v>0.0883914375434725</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0216718930447652</v>
+        <v>0.0150725829818278</v>
       </c>
       <c r="G6" t="n">
-        <v>10.7571013028042</v>
+        <v>5.86438553033952</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00000000000000000000000000548689824848472</v>
+        <v>0.00000000450798960985475</v>
       </c>
     </row>
     <row r="7">
@@ -600,16 +600,16 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.239431936597665</v>
+        <v>-0.045562358244072</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0366427178206379</v>
+        <v>0.0253086680444622</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.5342297416272</v>
+        <v>-1.800266934792</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0000000000639377356070636</v>
+        <v>0.0718184992625144</v>
       </c>
     </row>
     <row r="8">
@@ -624,16 +624,16 @@
         <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>0.769476436454697</v>
+        <v>0.214562336157729</v>
       </c>
       <c r="F8" t="n">
-        <v>0.152049489535731</v>
+        <v>0.11186429914953</v>
       </c>
       <c r="G8" t="n">
-        <v>5.0606972690551</v>
+        <v>1.91805909292759</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000000417726013009785</v>
+        <v>0.0551035186580508</v>
       </c>
     </row>
     <row r="9">
@@ -648,16 +648,16 @@
         <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.941956414450631</v>
+        <v>0.437495151985069</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0221266307325715</v>
+        <v>0.0142050043613638</v>
       </c>
       <c r="G9" t="n">
-        <v>42.5711634923262</v>
+        <v>30.7986636860888</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.73065851807127e-208</v>
       </c>
     </row>
     <row r="10">
@@ -704,16 +704,16 @@
         <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.300353534072304</v>
+        <v>-0.142393319584044</v>
       </c>
       <c r="F12" t="n">
-        <v>0.047135774592608</v>
+        <v>0.0328517024938558</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.37209288843228</v>
+        <v>-4.33442740481031</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000000000186465887056438</v>
+        <v>0.0000146140002912301</v>
       </c>
     </row>
     <row r="13">
@@ -728,16 +728,16 @@
         <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.358715774094696</v>
+        <v>-0.16630064169641</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0427597988870297</v>
+        <v>0.0295471683087351</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.38908936504621</v>
+        <v>-5.62831063737658</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0000000000000000489922192413372</v>
+        <v>0.0000000181983138397019</v>
       </c>
     </row>
     <row r="14">
@@ -752,16 +752,16 @@
         <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.544217780925337</v>
+        <v>-0.201986163423954</v>
       </c>
       <c r="F14" t="n">
-        <v>0.319889208062018</v>
+        <v>0.16743220866232</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.70126958712476</v>
+        <v>-1.20637579255329</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0888923761087084</v>
+        <v>0.227672625571253</v>
       </c>
     </row>
     <row r="15">
@@ -776,16 +776,16 @@
         <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.784634891508651</v>
+        <v>-0.71625048650992</v>
       </c>
       <c r="F15" t="n">
-        <v>0.443432840543253</v>
+        <v>0.210889997167484</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.76945598018268</v>
+        <v>-3.39632270913775</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0768178106557114</v>
+        <v>0.00068297785715143</v>
       </c>
     </row>
     <row r="16">
@@ -800,16 +800,16 @@
         <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00536011573658114</v>
+        <v>0.245973502601824</v>
       </c>
       <c r="F16" t="n">
-        <v>0.157033280891721</v>
+        <v>0.114857625465873</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0341336289106581</v>
+        <v>2.14155134762827</v>
       </c>
       <c r="H16" t="n">
-        <v>0.972770592108823</v>
+        <v>0.0322296023492851</v>
       </c>
     </row>
     <row r="17">
@@ -824,16 +824,16 @@
         <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.309461459540699</v>
+        <v>0.0162263119679135</v>
       </c>
       <c r="F17" t="n">
-        <v>0.157380828825096</v>
+        <v>0.086270427859577</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.96632246666216</v>
+        <v>0.188086605926253</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0492613732191092</v>
+        <v>0.850808760636989</v>
       </c>
     </row>
     <row r="18">
@@ -848,16 +848,16 @@
         <v>26</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.592272478619254</v>
+        <v>-0.334068349962439</v>
       </c>
       <c r="F18" t="n">
-        <v>0.232609096900932</v>
+        <v>0.128688227574914</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.54621374017673</v>
+        <v>-2.59595113133379</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0108898487026579</v>
+        <v>0.00943294804097804</v>
       </c>
     </row>
     <row r="19">
@@ -872,16 +872,16 @@
         <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.948150275482377</v>
+        <v>-0.577756784795273</v>
       </c>
       <c r="F19" t="n">
-        <v>0.395753442757862</v>
+        <v>0.17918131936908</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.39581055536766</v>
+        <v>-3.22442532977002</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0165836590905726</v>
+        <v>0.00126225770007545</v>
       </c>
     </row>
     <row r="20">
@@ -896,16 +896,16 @@
         <v>28</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.00105627700287568</v>
+        <v>0.0690352875828468</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0445431552978853</v>
+        <v>0.0291613211897228</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0237135648745977</v>
+        <v>2.3673580196763</v>
       </c>
       <c r="H20" t="n">
-        <v>0.981081085843704</v>
+        <v>0.0179155925966511</v>
       </c>
     </row>
     <row r="21">
@@ -920,16 +920,16 @@
         <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.349663006339907</v>
+        <v>-0.170396812804981</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0313162617192958</v>
+        <v>0.0211656453978623</v>
       </c>
       <c r="G21" t="n">
-        <v>-11.1655410685388</v>
+        <v>-8.05063155892194</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0000000000000000000000000000601239954249567</v>
+        <v>0.000000000000000823678825836799</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +946,7 @@
         <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>0.189898454364348</v>
+        <v>0.253846261506883</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
